--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="17400"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>Material ID</t>
   </si>
@@ -81,12 +81,6 @@
     <t>Pavatex</t>
   </si>
   <si>
-    <t>RenocllCellulose</t>
-  </si>
-  <si>
-    <t>ISOCELL</t>
-  </si>
-  <si>
     <t>X</t>
   </si>
   <si>
@@ -102,12 +96,6 @@
     <t>PUR 38/0.024 ID material 45/0.029</t>
   </si>
   <si>
-    <t>TecTemInsulationBoard80mm</t>
-  </si>
-  <si>
-    <t>Isoproc 42 kg/m3 ID material 93 kg/m3</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -117,9 +105,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Material ID: insulation, finish, detail/mounting</t>
-  </si>
-  <si>
     <t>689, 599</t>
   </si>
   <si>
@@ -153,9 +138,6 @@
     <t>731, 599, 12</t>
   </si>
   <si>
-    <t>Glue 112/123/407/486/664/674/682/705?</t>
-  </si>
-  <si>
     <t>+ vapour barrier EPS 1450/0.035/30-70 ID material 1500/0.036/96</t>
   </si>
   <si>
@@ -171,12 +153,6 @@
     <t>Rockwool</t>
   </si>
   <si>
-    <t>599 Gypsum Board Knauf Standard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">012 Air gap 50 mm (horizontal) </t>
-  </si>
-  <si>
     <t>+ vapour barrier Isover PBM 032</t>
   </si>
   <si>
@@ -199,6 +175,15 @@
   </si>
   <si>
     <t>two layers</t>
+  </si>
+  <si>
+    <t>587, 125, 705</t>
+  </si>
+  <si>
+    <t>588, 125, 705</t>
+  </si>
+  <si>
+    <t>Board is accurate</t>
   </si>
 </sst>
 </file>
@@ -236,7 +221,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -253,26 +238,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -284,14 +254,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -573,10 +540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -596,18 +563,18 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -616,173 +583,191 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>425</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>587</v>
+      <c r="A9" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>588</v>
+      <c r="A10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>57</v>
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>53</v>
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>658</v>
+      <c r="A13" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>59</v>
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -790,94 +775,45 @@
         <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="2"/>
-      <c r="E18" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
-      <c r="E19" s="10" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
-      <c r="E20" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E26">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
+    <hyperlink ref="E7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>Material ID</t>
   </si>
@@ -174,9 +174,6 @@
     <t>643, 125, 77</t>
   </si>
   <si>
-    <t>two layers</t>
-  </si>
-  <si>
     <t>587, 125, 705</t>
   </si>
   <si>
@@ -184,6 +181,51 @@
   </si>
   <si>
     <t>Board is accurate</t>
+  </si>
+  <si>
+    <t>25, 50, 100</t>
+  </si>
+  <si>
+    <t>Provided dim.[mm]</t>
+  </si>
+  <si>
+    <t>25, 30, 50, 80</t>
+  </si>
+  <si>
+    <t>40, 60, 80, 100</t>
+  </si>
+  <si>
+    <t>30, 50, 80</t>
+  </si>
+  <si>
+    <t>60, 80, 100</t>
+  </si>
+  <si>
+    <t>45, 75, 95, 115, 140</t>
+  </si>
+  <si>
+    <t>20, 45, 65, 80, 90, 110</t>
+  </si>
+  <si>
+    <t>two layers (K118)</t>
+  </si>
+  <si>
+    <t>70, 95, 120</t>
+  </si>
+  <si>
+    <t>45, 70, 95, 120, 145, 195, 245</t>
+  </si>
+  <si>
+    <t>100, 120, 140, 160</t>
+  </si>
+  <si>
+    <t>120, 140, 160, 180, 200, 220, 240, 260, 280, 300</t>
+  </si>
+  <si>
+    <t>25, 35, 50, 75, 100</t>
+  </si>
+  <si>
+    <t>60, 80, 100, 120</t>
   </si>
 </sst>
 </file>
@@ -540,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -551,11 +593,12 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,13 +609,16 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -582,11 +628,14 @@
       <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
@@ -594,13 +643,16 @@
         <v>22</v>
       </c>
       <c r="D3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
@@ -608,13 +660,16 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
@@ -622,14 +677,17 @@
         <v>6</v>
       </c>
       <c r="C5" s="3"/>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
         <v>20</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -639,11 +697,14 @@
       <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -653,13 +714,16 @@
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -667,16 +731,19 @@
       <c r="C8" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
         <v>20</v>
       </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -684,14 +751,17 @@
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>50</v>
       </c>
@@ -701,11 +771,14 @@
       <c r="C10" t="s">
         <v>14</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>40</v>
       </c>
@@ -715,14 +788,17 @@
       <c r="C11" t="s">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E11" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="F11" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -732,11 +808,14 @@
       <c r="C12" t="s">
         <v>16</v>
       </c>
-      <c r="E12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D12" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -746,14 +825,17 @@
       <c r="C13" t="s">
         <v>48</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="8" t="s">
+      <c r="F13" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -763,14 +845,17 @@
       <c r="C14" t="s">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="F14" s="7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>47</v>
       </c>
@@ -781,6 +866,9 @@
         <v>5</v>
       </c>
       <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -813,7 +901,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
+    <hyperlink ref="F7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
   <si>
     <t>Material ID</t>
   </si>
@@ -135,15 +135,9 @@
     <t>39, 125, 705</t>
   </si>
   <si>
-    <t>731, 599, 12</t>
-  </si>
-  <si>
     <t>+ vapour barrier EPS 1450/0.035/30-70 ID material 1500/0.036/96</t>
   </si>
   <si>
-    <t>644, 599, 12</t>
-  </si>
-  <si>
     <t>730, 599, 12</t>
   </si>
   <si>
@@ -153,18 +147,12 @@
     <t>Rockwool</t>
   </si>
   <si>
-    <t>+ vapour barrier Isover PBM 032</t>
-  </si>
-  <si>
     <t xml:space="preserve">+ vapour barrier Flexibatts 37 </t>
   </si>
   <si>
     <t>WoodWoolLightBuildingBoard</t>
   </si>
   <si>
-    <t>277, 599, 12</t>
-  </si>
-  <si>
     <t>ISOVER</t>
   </si>
   <si>
@@ -186,9 +174,6 @@
     <t>25, 50, 100</t>
   </si>
   <si>
-    <t>Provided dim.[mm]</t>
-  </si>
-  <si>
     <t>25, 30, 50, 80</t>
   </si>
   <si>
@@ -226,6 +211,33 @@
   </si>
   <si>
     <t>60, 80, 100, 120</t>
+  </si>
+  <si>
+    <t>Insulation dim.[mm]</t>
+  </si>
+  <si>
+    <t>Finish dim.[mm]</t>
+  </si>
+  <si>
+    <t>Detail dim.[mm]</t>
+  </si>
+  <si>
+    <t>Swisspor</t>
+  </si>
+  <si>
+    <t>+ vapour barrier Isover PBM 032 https://www.youtube.com/watch?v=dnj4MQkCsLY</t>
+  </si>
+  <si>
+    <t>Vapour barrier</t>
+  </si>
+  <si>
+    <t>644, 599</t>
+  </si>
+  <si>
+    <t>731, 599</t>
+  </si>
+  <si>
+    <t>276, 599</t>
   </si>
 </sst>
 </file>
@@ -582,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,12 +605,13 @@
     <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="5" max="7" width="15.6640625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,16 +622,25 @@
         <v>25</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>37</v>
       </c>
@@ -629,65 +651,109 @@
         <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
+      <c r="C3" t="s">
+        <v>67</v>
+      </c>
       <c r="D3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I3" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" t="s">
+        <v>67</v>
+      </c>
       <c r="D5" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="3">
+        <v>25</v>
+      </c>
+      <c r="F5" s="3">
+        <v>30</v>
+      </c>
+      <c r="G5" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>29</v>
       </c>
@@ -698,13 +764,22 @@
         <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+      <c r="G6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -715,15 +790,24 @@
         <v>13</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5">
+        <v>10</v>
+      </c>
+      <c r="F7" s="5">
+        <v>8</v>
+      </c>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
@@ -732,18 +816,27 @@
         <v>19</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="5">
+        <v>10</v>
+      </c>
+      <c r="F8" s="5">
+        <v>5</v>
+      </c>
+      <c r="G8" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -752,18 +845,27 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="5">
+        <v>10</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
@@ -772,33 +874,49 @@
         <v>14</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I11" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -809,35 +927,51 @@
         <v>16</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="E12" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F13" s="5">
+        <v>22</v>
+      </c>
+      <c r="G13" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I13" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
@@ -846,29 +980,42 @@
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="I14" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G15" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
         <v>20</v>
       </c>
     </row>
@@ -901,7 +1048,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
+    <hyperlink ref="I7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -597,21 +597,21 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="7" width="15.6640625" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -640,18 +640,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -663,149 +663,149 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3">
-        <v>25</v>
-      </c>
-      <c r="F3">
-        <v>30</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>8</v>
+      </c>
+      <c r="G3" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="E4">
         <v>10</v>
       </c>
       <c r="F4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G4" t="b">
         <v>0</v>
       </c>
-      <c r="H4" t="s">
-        <v>20</v>
-      </c>
       <c r="I4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
         <v>67</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="3">
+      <c r="D5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E5">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5">
         <v>30</v>
       </c>
-      <c r="G5" s="3" t="b">
+      <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>20</v>
       </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I5" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
       <c r="I6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3">
+        <v>25</v>
+      </c>
+      <c r="F7" s="3">
         <v>30</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
-        <v>8</v>
-      </c>
-      <c r="G7" s="5" t="b">
-        <v>0</v>
+      <c r="G7" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
       </c>
       <c r="I7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>47</v>
       </c>
@@ -834,7 +834,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -863,7 +863,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>46</v>
       </c>
@@ -889,7 +889,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>70</v>
       </c>
@@ -916,7 +916,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>28</v>
       </c>
@@ -940,7 +940,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>39</v>
       </c>
@@ -969,7 +969,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
@@ -996,7 +996,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
@@ -1019,28 +1019,28 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
     </row>
   </sheetData>
@@ -1048,7 +1048,7 @@
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I7" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
+    <hyperlink ref="I3" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -597,18 +597,20 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="7" width="15.7109375" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>Material ID</t>
   </si>
@@ -57,9 +57,6 @@
     <t>ClimateBoard</t>
   </si>
   <si>
-    <t>Skamol</t>
-  </si>
-  <si>
     <t>Remmers</t>
   </si>
   <si>
@@ -132,9 +129,6 @@
     <t>ID could be 124/125 and 705/486/407</t>
   </si>
   <si>
-    <t>39, 125, 705</t>
-  </si>
-  <si>
     <t>+ vapour barrier EPS 1450/0.035/30-70 ID material 1500/0.036/96</t>
   </si>
   <si>
@@ -238,6 +232,18 @@
   </si>
   <si>
     <t>276, 599</t>
+  </si>
+  <si>
+    <t>592, 125, 705</t>
+  </si>
+  <si>
+    <t>591, 125, 705</t>
+  </si>
+  <si>
+    <t>595, 125, 77</t>
+  </si>
+  <si>
+    <t>706, 722, 705</t>
   </si>
 </sst>
 </file>
@@ -594,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -621,39 +627,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -665,157 +671,143 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>34</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E3" s="5">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3" s="5">
-        <v>8</v>
-      </c>
-      <c r="G3" s="5" t="b">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="F4">
-        <v>5</v>
-      </c>
-      <c r="G4" t="b">
+      <c r="F4" s="5">
+        <v>8</v>
+      </c>
+      <c r="G4" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E5">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E6">
         <v>10</v>
       </c>
       <c r="F6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" t="b">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>20</v>
-      </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="3">
-        <v>25</v>
-      </c>
-      <c r="F7" s="3">
-        <v>30</v>
-      </c>
-      <c r="G7" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5" t="b">
+        <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>52</v>
@@ -829,22 +821,19 @@
       <c r="G8" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
       <c r="I8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>52</v>
@@ -858,199 +847,291 @@
       <c r="G9" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="b">
-        <v>1</v>
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
       </c>
       <c r="H11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>42</v>
+        <v>19</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" s="3">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>44</v>
+        <v>16</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E13" s="5">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="F13" s="5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G13" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>68</v>
+        <v>19</v>
+      </c>
+      <c r="I13" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="5">
+        <v>10</v>
+      </c>
+      <c r="F14" s="5">
         <v>5</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F14" s="5"/>
       <c r="G14" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
+      </c>
+      <c r="I14" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>62</v>
+        <v>39</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="E15" s="5">
         <v>12.5</v>
       </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F16" s="5">
+        <v>22</v>
+      </c>
+      <c r="G16" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G18" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E26">
     <sortCondition ref="A1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
+    <hyperlink ref="I4" r:id="rId1" display="http://www.conservationtech.ie/view-cats.php?prod_id=179 "/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="17400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18000" windowHeight="8904"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Material ID</t>
   </si>
@@ -90,9 +90,6 @@
     <t>XPS 30/0.036/80-250 ID material 35/0.027/225</t>
   </si>
   <si>
-    <t>PUR 38/0.024 ID material 45/0.029</t>
-  </si>
-  <si>
     <t>Producer</t>
   </si>
   <si>
@@ -244,6 +241,15 @@
   </si>
   <si>
     <t>706, 722, 705</t>
+  </si>
+  <si>
+    <t>DTU</t>
+  </si>
+  <si>
+    <t>Skamol</t>
+  </si>
+  <si>
+    <t>PUR 38/0.024 ID material 45/0.029 https://www.swisspor.ch/index.php?section=datasheet&amp;cmd=planningPage&amp;id=5808</t>
   </si>
 </sst>
 </file>
@@ -281,7 +287,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,11 +304,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -315,11 +330,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,26 +619,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="105.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="105.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -627,30 +646,30 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
         <v>11</v>
@@ -659,7 +678,7 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E2">
         <v>10</v>
@@ -671,12 +690,12 @@
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="s">
         <v>11</v>
@@ -685,7 +704,7 @@
         <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E3">
         <v>10</v>
@@ -697,12 +716,12 @@
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
@@ -711,7 +730,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E4" s="5">
         <v>10</v>
@@ -723,12 +742,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
@@ -737,7 +756,7 @@
         <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -749,9 +768,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>4</v>
@@ -760,7 +779,7 @@
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -772,12 +791,12 @@
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" t="s">
         <v>14</v>
@@ -786,7 +805,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="5">
         <v>12.5</v>
@@ -796,12 +815,12 @@
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -810,7 +829,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="5">
         <v>10</v>
@@ -822,12 +841,12 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
         <v>10</v>
@@ -836,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="5">
         <v>10</v>
@@ -848,79 +867,63 @@
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>30</v>
-      </c>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E10">
-        <v>25</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10" t="b">
+        <v>75</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="F11" s="5">
+        <v>22</v>
+      </c>
+      <c r="G11" s="5" t="b">
         <v>1</v>
-      </c>
-      <c r="H10" t="s">
-        <v>19</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11">
-        <v>10</v>
-      </c>
-      <c r="F11">
-        <v>4</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
       </c>
       <c r="H11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E12" s="3">
         <v>25</v>
@@ -935,135 +938,137 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E13" s="5">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="9">
+        <v>25</v>
+      </c>
+      <c r="F13" s="9">
+        <v>30</v>
+      </c>
+      <c r="G13" s="9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14">
         <v>10</v>
       </c>
-      <c r="F13" s="5">
-        <v>5</v>
-      </c>
-      <c r="G13" s="5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13" t="s">
-        <v>19</v>
-      </c>
-      <c r="I13" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="5">
-        <v>10</v>
-      </c>
-      <c r="F14" s="5">
-        <v>5</v>
-      </c>
-      <c r="G14" s="5" t="b">
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14" t="b">
         <v>0</v>
       </c>
       <c r="H14" t="s">
         <v>19</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
+        <v>16</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E15" s="5">
-        <v>12.5</v>
-      </c>
-      <c r="F15" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="F15" s="5">
+        <v>5</v>
+      </c>
       <c r="G15" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="s">
         <v>19</v>
       </c>
-      <c r="I15" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="E16" s="5">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="F16" s="5">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="G16" s="5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="s">
         <v>19</v>
       </c>
-      <c r="I16" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="E17" s="5">
         <v>12.5</v>
@@ -1075,56 +1080,86 @@
       <c r="H17" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
       </c>
-      <c r="D18" t="s">
-        <v>60</v>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
       </c>
       <c r="E18" s="5">
         <v>12.5</v>
       </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="5">
+        <v>12.5</v>
+      </c>
+      <c r="G19" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A28" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A2:E26">

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -622,7 +622,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +881,9 @@
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="5" t="b">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
@@ -1145,9 +1147,6 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2"/>
-      <c r="B24">
-        <v>154</v>
-      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>

--- a/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
+++ b/delphin_6_automation/sampling/input_files/InsulationSystems.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="79">
   <si>
     <t>Material ID</t>
   </si>
@@ -243,13 +243,19 @@
     <t>706, 722, 705</t>
   </si>
   <si>
-    <t>DTU</t>
-  </si>
-  <si>
     <t>Skamol</t>
   </si>
   <si>
     <t>PUR 38/0.024 ID material 45/0.029 https://www.swisspor.ch/index.php?section=datasheet&amp;cmd=planningPage&amp;id=5808</t>
+  </si>
+  <si>
+    <t>CasiPlus</t>
+  </si>
+  <si>
+    <t>25, 30, 50</t>
+  </si>
+  <si>
+    <t>903, 125, 705</t>
   </si>
 </sst>
 </file>
@@ -622,7 +628,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -871,16 +877,24 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2" t="s">
+        <v>78</v>
+      </c>
       <c r="B10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" t="s">
         <v>74</v>
       </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="5">
+        <v>10</v>
+      </c>
+      <c r="F10" s="5">
+        <v>8</v>
+      </c>
       <c r="G10" s="5" t="b">
         <v>0</v>
       </c>
@@ -940,7 +954,7 @@
         <v>19</v>
       </c>
       <c r="I12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
